--- a/biology/Botanique/Neckera_complanata/Neckera_complanata.xlsx
+++ b/biology/Botanique/Neckera_complanata/Neckera_complanata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neckera complanata est une espèce de mousses de la famille des Neckeraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente sur toute l'Europe, et a été signalée sur les autres continents[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente sur toute l'Europe, et a été signalée sur les autres continents.
 </t>
         </is>
       </c>
@@ -542,15 +556,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Neckera complanata (Hedw.) Huebener, 1833[2].
-Synonymes
-Neckera complanata a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Neckera complanata (Hedw.) Huebener, 1833.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Neckera_complanata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neckera_complanata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Neckera complanata a pour synonymes :
 Eleutera ornithopodioides Stuntz
-Rhystophyllum ornithopodioides (Stuntz) E.Britton
-Variétés
-Liste des variétés selon GBIF       (25 décembre 2021)[1] :
+Rhystophyllum ornithopodioides (Stuntz) E.Britton</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Neckera_complanata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neckera_complanata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des variétés selon GBIF       (25 décembre 2021) :
 Neckera complanata var. complanata
 Neckera complanata var. rabenhorstii (Warnst.) Podp.
 Neckera complanata var. vulgaris (Boulay) Hérib.</t>
